--- a/template.xlsx
+++ b/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRepos\Blindesigners\CARDS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD3F270-E626-4AFB-89EC-6CAF8795720F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F702A81-0486-4BF8-B887-218F8D22B17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19656" yWindow="1524" windowWidth="15504" windowHeight="21132" xr2:uid="{BE9F42BC-5970-4CE2-8E20-E3337A34CC05}"/>
+    <workbookView xWindow="19656" yWindow="1536" windowWidth="15504" windowHeight="21120" activeTab="1" xr2:uid="{BE9F42BC-5970-4CE2-8E20-E3337A34CC05}"/>
   </bookViews>
   <sheets>
     <sheet name="Card" sheetId="1" r:id="rId1"/>
@@ -37,51 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <r>
-      <t xml:space="preserve">Text "Cards" to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>971-236-1579</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>www.blindesigners.com</t>
-  </si>
-  <si>
-    <t>Hi, I'm Dave, and I have a new hobby!</t>
-  </si>
-  <si>
-    <t>Cards that direct people here via QR code.</t>
-  </si>
-  <si>
-    <t>I am designing creative custom calling cards.</t>
-  </si>
-  <si>
-    <t>You get $20 for each new customer!</t>
-  </si>
-  <si>
-    <t>Your cards can create new customers!</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Get Yourself Some Cards!</t>
   </si>
@@ -96,6 +52,33 @@
   </si>
   <si>
     <t>503-975-5544</t>
+  </si>
+  <si>
+    <t>You are here because someone gave you a card.</t>
+  </si>
+  <si>
+    <t>Just The Facts!</t>
+  </si>
+  <si>
+    <t>Every $20 that you receive can double…</t>
+  </si>
+  <si>
+    <t>You get $20 for each new customer, starting with #3.</t>
+  </si>
+  <si>
+    <t>Your cards can create new customers.</t>
+  </si>
+  <si>
+    <t>Get your own set of 250 cards for $100.</t>
+  </si>
+  <si>
+    <t>. . .</t>
+  </si>
+  <si>
+    <t>Text "Cards" to 971-236-1579 to get started!</t>
+  </si>
+  <si>
+    <t>You scanned a QR code. The System Works.</t>
   </si>
 </sst>
 </file>
@@ -105,7 +88,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,30 +112,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="9" tint="-0.249977111117893"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="36"/>
-      <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -181,6 +140,20 @@
       <b/>
       <sz val="16"/>
       <color theme="9" tint="-0.249977111117893"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -215,11 +188,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -234,51 +206,54 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="6" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -680,80 +655,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E638810B-CA41-4111-9EB3-48F32535F78F}">
   <dimension ref="B1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="58.5546875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="3.88671875" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="37.109375" style="6"/>
+    <col min="1" max="1" width="4.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="58.5546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="3.88671875" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="37.109375" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:3" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="15" t="s">
-        <v>10</v>
+      <c r="B2" s="12" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="47.4" x14ac:dyDescent="0.3">
-      <c r="B3" s="16" t="s">
-        <v>11</v>
+      <c r="B3" s="13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="11"/>
-    </row>
-    <row r="5" spans="2:3" s="13" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="12"/>
-    </row>
-    <row r="6" spans="2:3" s="13" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="11"/>
-    </row>
-    <row r="7" spans="2:3" s="13" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="12"/>
-      <c r="C7" s="14"/>
+      <c r="B4" s="8"/>
+    </row>
+    <row r="5" spans="2:3" s="10" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="2:3" s="10" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" spans="2:3" s="10" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="9"/>
+      <c r="C7" s="11"/>
     </row>
     <row r="8" spans="2:3" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
-        <v>7</v>
+      <c r="B8" s="8" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="19" t="s">
-        <v>8</v>
+      <c r="B9" s="14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="11" t="s">
-        <v>9</v>
+      <c r="B10" s="8" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="12"/>
+      <c r="B11" s="9"/>
     </row>
     <row r="12" spans="2:3" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="11"/>
+      <c r="B12" s="8"/>
     </row>
     <row r="13" spans="2:3" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="12"/>
+      <c r="B13" s="9"/>
     </row>
     <row r="14" spans="2:3" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="11"/>
+      <c r="B14" s="8"/>
     </row>
     <row r="15" spans="2:3" ht="41.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:3" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="11"/>
+      <c r="B16" s="8"/>
     </row>
     <row r="17" spans="2:2" ht="41.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:2" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="11"/>
+      <c r="B18" s="8"/>
     </row>
     <row r="19" spans="2:2" ht="41.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:2" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="11"/>
+      <c r="B20" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -765,97 +740,126 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BFABC4B-B73A-4823-BE7B-6D82B4B4DECE}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="62.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.88671875" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" customWidth="1"/>
+    <col min="2" max="2" width="73.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4" ht="47.4" x14ac:dyDescent="0.9">
-      <c r="A2" s="1"/>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:3" ht="63" x14ac:dyDescent="1.2">
+      <c r="A2" s="2"/>
       <c r="B2" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="18"/>
-    </row>
-    <row r="3" spans="1:4" s="3" customFormat="1" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" s="3" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="3" customFormat="1" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="3" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="3" customFormat="1" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="4">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="3" customFormat="1" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="3" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" s="4">
-        <v>4</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="3" customFormat="1" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="3" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="4">
-        <v>5</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="3" customFormat="1" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="4">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="18">
+        <f>B9*2</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="18">
+        <f t="shared" ref="B11:B15" si="0">B10*2</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="18">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="18">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="18">
+        <f t="shared" si="0"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="18">
+        <f t="shared" si="0"/>
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="15" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="2" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="20"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="21" spans="1:3" s="3" customFormat="1" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{7123AE11-6237-4684-89C2-1C695D616FE8}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/template.xlsx
+++ b/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRepos\Blindesigners\CARDS\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRepos\Blindesigners\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F702A81-0486-4BF8-B887-218F8D22B17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2882EB03-F51B-4DC3-9878-33A154D91453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19656" yWindow="1536" windowWidth="15504" windowHeight="21120" activeTab="1" xr2:uid="{BE9F42BC-5970-4CE2-8E20-E3337A34CC05}"/>
+    <workbookView xWindow="19656" yWindow="1536" windowWidth="15504" windowHeight="21120" xr2:uid="{BE9F42BC-5970-4CE2-8E20-E3337A34CC05}"/>
   </bookViews>
   <sheets>
     <sheet name="Card" sheetId="1" r:id="rId1"/>
@@ -42,30 +42,15 @@
     <t>Get Yourself Some Cards!</t>
   </si>
   <si>
-    <t>Make up to $20 each as you use them!</t>
-  </si>
-  <si>
     <t>Scan The QR Code</t>
   </si>
   <si>
-    <t>David W Knight</t>
-  </si>
-  <si>
-    <t>503-975-5544</t>
-  </si>
-  <si>
     <t>You are here because someone gave you a card.</t>
   </si>
   <si>
     <t>Just The Facts!</t>
   </si>
   <si>
-    <t>Every $20 that you receive can double…</t>
-  </si>
-  <si>
-    <t>You get $20 for each new customer, starting with #3.</t>
-  </si>
-  <si>
     <t>Your cards can create new customers.</t>
   </si>
   <si>
@@ -79,6 +64,21 @@
   </si>
   <si>
     <t>You scanned a QR code. The System Works.</t>
+  </si>
+  <si>
+    <t>This card may be worth $25!</t>
+  </si>
+  <si>
+    <t>Your Name</t>
+  </si>
+  <si>
+    <t>Your Number</t>
+  </si>
+  <si>
+    <t>You get $25 for each new customer, starting with #3.</t>
+  </si>
+  <si>
+    <t>Every $25 that you receive can double…</t>
   </si>
 </sst>
 </file>
@@ -191,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -245,10 +245,6 @@
     <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -331,6 +327,64 @@
         </a:effectLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2797629</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Isosceles Triangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20CE74EA-CA84-8353-63CF-AFB2DCD468E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1379220" y="5258889"/>
+          <a:ext cx="1730829" cy="2048691"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -655,27 +709,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E638810B-CA41-4111-9EB3-48F32535F78F}">
   <dimension ref="B1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="58.5546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="3.88671875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="57.5546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" style="5" customWidth="1"/>
     <col min="4" max="16384" width="37.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="2:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:3" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="47.4" x14ac:dyDescent="0.3">
       <c r="B3" s="13" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -698,12 +752,12 @@
     </row>
     <row r="9" spans="2:3" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="14" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -742,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BFABC4B-B73A-4823-BE7B-6D82B4B4DECE}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
@@ -760,98 +814,97 @@
     <row r="2" spans="1:3" ht="63" x14ac:dyDescent="1.2">
       <c r="A2" s="2"/>
       <c r="B2" s="17" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" s="3" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="3" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="3" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="16" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="3" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="18">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="18">
         <f>B9*2</f>
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="18">
         <f t="shared" ref="B11:B15" si="0">B10*2</f>
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="18">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="18">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="18">
         <f t="shared" si="0"/>
-        <v>640</v>
+        <v>800</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="18">
         <f t="shared" si="0"/>
-        <v>1280</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="15" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="2" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="21" t="s">
-        <v>12</v>
+      <c r="B17" s="19" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="20"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="7"/>
       <c r="C18" s="7"/>
     </row>
     <row r="21" spans="1:3" s="3" customFormat="1" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">

--- a/template.xlsx
+++ b/template.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRepos\Blindesigners\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2882EB03-F51B-4DC3-9878-33A154D91453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC44346-43D2-4403-8DBC-E85676C8706B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19656" yWindow="1536" windowWidth="15504" windowHeight="21120" xr2:uid="{BE9F42BC-5970-4CE2-8E20-E3337A34CC05}"/>
+    <workbookView xWindow="19656" yWindow="1536" windowWidth="15504" windowHeight="21120" activeTab="2" xr2:uid="{BE9F42BC-5970-4CE2-8E20-E3337A34CC05}"/>
   </bookViews>
   <sheets>
     <sheet name="Card" sheetId="1" r:id="rId1"/>
     <sheet name="Website" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Get Yourself Some Cards!</t>
   </si>
@@ -709,7 +710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E638810B-CA41-4111-9EB3-48F32535F78F}">
   <dimension ref="B1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -797,7 +798,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
@@ -915,4 +916,40 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A88A212-6528-4258-B47F-98B4D9AC5A3C}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.5546875" customWidth="1"/>
+    <col min="2" max="2" width="56.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A1" s="7"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:3" ht="63" x14ac:dyDescent="1.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="C3" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>